--- a/biology/Zoologie/Chien_de_flic/Chien_de_flic.xlsx
+++ b/biology/Zoologie/Chien_de_flic/Chien_de_flic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chien de flic (K-9[1]) est un film américain réalisé par Rod Daniel, sorti en 1989.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chien de flic (K-9) est un film américain réalisé par Rod Daniel, sorti en 1989.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’inspecteur de San Diego Police Department Mike Dooley doit, contre son gré, faire équipe avec un partenaire original : Jerry Lee, un berger allemand. Cette association se poursuit bien au-delà du simple cadre du travail...
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : K-9
@@ -563,7 +579,7 @@
 Durée : 95 minutes
 Dates de sortie :
  États-Unis : 28 avril 1989
- France : 2 août 1989[2]</t>
+ France : 2 août 1989</t>
         </is>
       </c>
     </row>
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>James Belushi (VF : Gérard Dessalles et VQ : Pierre Auger) : l'inspecteur Michael « Mike » Dooley
 Mel Harris (VF : Annie Balestra et VQ : Hélène Mondoux) : Tracy
@@ -630,6 +648,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,6 +676,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -681,7 +703,9 @@
           <t>Saga Chien de flic</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1989 : Chien de flic (K-9) de Rod Daniel
 1999 : Chien de flic 2 (K-911) de Charles T. Kanganis
